--- a/biology/Botanique/Vateria/Vateria.xlsx
+++ b/biology/Botanique/Vateria/Vateria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Vateria est un genre d'arbres de la famille des Dipterocarpaceae localisé à l'Asie du Sud Est.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Asie du Sud Est
 </t>
@@ -568,7 +584,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre Vateria compte une dizaine d'espèces, plus de la moitié sont en danger critique d'extinction.
 Vateria acuminata
@@ -581,7 +599,7 @@
 Vateria elegans
 Vateria indica, Linn
 Vateria macrocarpa, B.L. Gupta
-Selon GBIF       (9 avril 2024)[1], il n'existe, en 2024, que 4 à 5 espèces :
+Selon GBIF       (9 avril 2024), il n'existe, en 2024, que 4 à 5 espèces :
 Vateria copallifera (Retz.) Alston
 Vateria indica L.
 Vateria lanceaefolia A.DC., 1868
@@ -614,10 +632,12 @@
           <t>Systématique et taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Vateria L.[1].
-Vateria a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Vateria L..
+Vateria a pour synonymes :
 Dyerella F.Heim
 Panoe Adans.</t>
         </is>
